--- a/biology/Zoologie/Isthmura/Isthmura.xlsx
+++ b/biology/Zoologie/Isthmura/Isthmura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isthmura  est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isthmura  est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept espèces de ce genre sont endémiques du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept espèces de ce genre sont endémiques du Mexique.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2015) :
 Isthmura bellii (Gray, 1850)
 Isthmura boneti (Alvarez &amp; Martín, 1967)
 Isthmura gigantea (Taylor, 1939)
 Isthmura maxima (Parra-Olea, García-París, Papenfuss &amp; Wake, 2005)
 Isthmura naucampatepetl (Parra-Olea, Papenfuss &amp; Wake, 2001)
 Isthmura sierraoccidentalis (Lowe, Jones &amp; Wright, 1968)
-En 2017, une nouvelle espèce a été décrite (Zootaxa)[3] :
+En 2017, une nouvelle espèce a été décrite (Zootaxa) :
 Isthmura corrugata Sandoval-Comte, Pineda, Rovito &amp; Luría-Manzano</t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dubois &amp; Raffaëlli, 2012 : A new ergotaxonomy of the order Urodela Duméril, 1805 (Amphibia, Batrachia). Alytes, vol. 28, no 3/4, p. 77–161.</t>
         </is>
